--- a/biology/Médecine/Réseau_national_de_surveillance_aérobiologique/Réseau_national_de_surveillance_aérobiologique.xlsx
+++ b/biology/Médecine/Réseau_national_de_surveillance_aérobiologique/Réseau_national_de_surveillance_aérobiologique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9seau_national_de_surveillance_a%C3%A9robiologique</t>
+          <t>Réseau_national_de_surveillance_aérobiologique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Réseau national de surveillance aérobiologique (RNSA) est une association loi de 1901 créée en 1996 afin de poursuivre les travaux réalisés depuis 1985 par le laboratoire d'aérobiologie de l'Institut Pasteur à Paris.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9seau_national_de_surveillance_a%C3%A9robiologique</t>
+          <t>Réseau_national_de_surveillance_aérobiologique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Objet</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon le site de l'association, le réseau a pour objet principal l'étude du contenu de l'air en particules biologiques pouvant avoir une incidence sur le risque allergique pour la population. C'est-à-dire l'étude du contenu de l'air en pollens et en moisissures, ainsi que du recueil des données cliniques associées.
 Le RNSA est doté d'un conseil d'administration (composé de cliniciens, d'analystes et de membres fonctionnels) , d'un conseil scientifique (composé de membres nommés par la Direction Générale de la Santé, l'Institut de veille sanitaire, le Conseil Supérieur d'Hygiène publique). Il compte parmi ses membres et se trouve être en relation avec les spécialistes en allergologie, en palynologie et en analyses biologiques.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9seau_national_de_surveillance_a%C3%A9robiologique</t>
+          <t>Réseau_national_de_surveillance_aérobiologique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,12 +559,87 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Site internet
-Les données fournies par le site internet de l'association sont régulièrement actualisées : Elles peuvent faire l'objet de modifications ou d'invalidations postérieures à leur diffusion.
-Prévisions du risque allergique
-Le Réseau offre la possibilité de s'inscrire en ligne pour recevoir chaque semaine par e-mail les prévisions du risque allergique des départements de votre choix et pour les familles de plantes allergènes de votre choix.
-Bulletins périodiques
-Bulletin allergo-pollinique
+          <t>Site internet</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les données fournies par le site internet de l'association sont régulièrement actualisées : Elles peuvent faire l'objet de modifications ou d'invalidations postérieures à leur diffusion.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Réseau_national_de_surveillance_aérobiologique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9seau_national_de_surveillance_a%C3%A9robiologique</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Prévisions du risque allergique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Réseau offre la possibilité de s'inscrire en ligne pour recevoir chaque semaine par e-mail les prévisions du risque allergique des départements de votre choix et pour les familles de plantes allergènes de votre choix.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Réseau_national_de_surveillance_aérobiologique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9seau_national_de_surveillance_a%C3%A9robiologique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bulletins périodiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Bulletin allergo-pollinique
 Bulletin moisissures
 Bulletin phénologique</t>
         </is>
